--- a/mapped_privacy_metrics.xlsx
+++ b/mapped_privacy_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18496\Desktop\Privacy Evaluation Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA22D89E-4800-4071-ADEB-DF1FFEE54455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919233B-0CD4-4FB0-91FF-10E6C36145FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{43644DF6-A560-48B4-A127-82AC9E5046B7}"/>
   </bookViews>
@@ -1655,20 +1655,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA90C26-4F73-4C92-8527-47D20031DAB6}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="1" max="2" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="197.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="243.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">

--- a/mapped_privacy_metrics.xlsx
+++ b/mapped_privacy_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18496\Desktop\Privacy Evaluation Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919233B-0CD4-4FB0-91FF-10E6C36145FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86573B3-40D8-4C87-9ADA-05E7850638C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{43644DF6-A560-48B4-A127-82AC9E5046B7}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishObjects count="1">
+    <webPublishObject id="25380" divId="mapped_privacy_metrics_25380" destinationFile="C:\Users\18496\Desktop\Privacy Evaluation Survey\Page.mht"/>
+  </webPublishObjects>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1277,7 +1280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1285,39 +1288,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1655,1633 +1650,1634 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA90C26-4F73-4C92-8527-47D20031DAB6}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="160.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="180.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="197.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="243.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="197.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="243.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3373,5 +3369,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
+  <webPublishItems count="2">
+    <webPublishItem id="9427" divId="mapped_privacy_metrics_9427" sourceType="sheet" destinationFile="C:\Users\18496\Desktop\Privacy Evaluation Survey\mapped_privacy_metrics.htm"/>
+    <webPublishItem id="20145" divId="mapped_privacy_metrics_20145" sourceType="sheet" destinationFile="C:\Users\18496\Desktop\Privacy Evaluation Survey\Page.mht"/>
+  </webPublishItems>
 </worksheet>
 </file>